--- a/biology/Virologie/Salmon_isavirus/Salmon_isavirus.xlsx
+++ b/biology/Virologie/Salmon_isavirus/Salmon_isavirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’Isavirus du saumon (VAIS), ou Salmon isavirus, précédemment Infectious salmon anemia virus, est une espèce de virus responsable de l'anémie infectieuse du saumon (AIS) (classée dans la liste des dangers sanitaires de première catégorie), affectant le Saumon atlantique (Salmo salar), la Truite arc-en-ciel (Oncorhynchus mykiss) et la Truite fario (Salmo trutta)[3], des fermes piscicoles, au Canada, en Norvège, en Écosse, au Chili..., causant de lourdes pertes pour les exploitations infectées[4].
-C’est la seule espèce connue[5] du genre Isavirus de la famille des Orthomyxoviridae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Isavirus du saumon (VAIS), ou Salmon isavirus, précédemment Infectious salmon anemia virus, est une espèce de virus responsable de l'anémie infectieuse du saumon (AIS) (classée dans la liste des dangers sanitaires de première catégorie), affectant le Saumon atlantique (Salmo salar), la Truite arc-en-ciel (Oncorhynchus mykiss) et la Truite fario (Salmo trutta), des fermes piscicoles, au Canada, en Norvège, en Écosse, au Chili..., causant de lourdes pertes pour les exploitations infectées.
+C’est la seule espèce connue du genre Isavirus de la famille des Orthomyxoviridae.
 </t>
         </is>
       </c>
